--- a/medicine/Psychotrope/Réhoboam_(bouteille)/Réhoboam_(bouteille).xlsx
+++ b/medicine/Psychotrope/Réhoboam_(bouteille)/Réhoboam_(bouteille).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9hoboam_(bouteille)</t>
+          <t>Réhoboam_(bouteille)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Réhoboam est une bouteille en verre conçue pour contenir l'équivalent de six bouteilles de 75 cl, soit quatre litres et demi. Ce nom vient de Roboam, roi de Juda et fils du roi Salomon selon la Bible.
 </t>
